--- a/src/test/resources/testData/TBO_AI.xlsx
+++ b/src/test/resources/testData/TBO_AI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripgain-my.sharepoint.com/personal/tarun_tripgain_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\iween-main\iween-main\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{819EF24A-77C2-4729-ADB4-93D417FC2996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47AF3D27-D96E-411D-A305-6A1722CDC797}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA9D588-7BDB-4CF4-B236-119A227D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A2F0E97A-FA68-4119-BD81-05BC4D51AC58}"/>
   </bookViews>
@@ -38,18 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>BLR</t>
-  </si>
-  <si>
     <t>Depart From</t>
   </si>
   <si>
     <t>Going To</t>
   </si>
   <si>
-    <t>CJB</t>
-  </si>
-  <si>
     <t>AdultsCounts</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>Economy</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>DEL</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,30 +451,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
